--- a/doc/Test_cases.xlsx
+++ b/doc/Test_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGribanov\Documents\Турбо API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGribanov\IdeaProjects\api-rest-turbo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAB6244-9437-4859-A1BB-51F1575105BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094BAAEE-A411-4F9F-B1C4-FB2FEBC78AD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18774" windowHeight="7349" activeTab="1" xr2:uid="{3EF859F2-01F4-4F87-84A4-7647AD959083}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="DOCKS" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="103">
   <si>
     <t>#</t>
   </si>
@@ -737,9 +736,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -748,24 +765,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1115,18 +1114,18 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1134,16 +1133,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="52.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="114.15" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1152,8 +1151,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1172,18 +1171,18 @@
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1191,17 +1190,17 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1209,24 +1208,24 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
@@ -1246,18 +1245,18 @@
       <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:5" ht="85.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1266,16 +1265,16 @@
     </row>
     <row r="18" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="35" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1284,23 +1283,23 @@
     </row>
     <row r="20" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
-      <c r="B22" s="38"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="5" t="s">
         <v>30</v>
       </c>
@@ -1319,19 +1318,19 @@
       <c r="A24" s="4">
         <v>4</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1340,16 +1339,16 @@
     </row>
     <row r="26" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="35" t="s">
+      <c r="B27" s="43"/>
+      <c r="C27" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -1358,23 +1357,23 @@
     </row>
     <row r="28" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="35"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="148.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
-      <c r="B30" s="38"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="5" t="s">
         <v>30</v>
       </c>
@@ -1468,11 +1467,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="C25:C26"/>
@@ -1487,6 +1481,11 @@
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1497,7 +1496,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1937,7 +1936,7 @@
       <c r="F25" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="34"/>
+      <c r="G25" s="33"/>
       <c r="I25" s="16" t="s">
         <v>27</v>
       </c>

--- a/doc/Test_cases.xlsx
+++ b/doc/Test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGribanov\IdeaProjects\api-rest-turbo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094BAAEE-A411-4F9F-B1C4-FB2FEBC78AD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FBC627-38F6-413A-BEF1-2600CBFEB7A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18774" windowHeight="7349" activeTab="1" xr2:uid="{3EF859F2-01F4-4F87-84A4-7647AD959083}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18774" windowHeight="7349" activeTab="2" xr2:uid="{3EF859F2-01F4-4F87-84A4-7647AD959083}"/>
   </bookViews>
   <sheets>
     <sheet name="Сценарии тестирования" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="119">
   <si>
     <t>#</t>
   </si>
@@ -291,9 +291,6 @@
     </r>
   </si>
   <si>
-    <t>Структура JSON-обьекта соответствует схеме в файле FORM_FILTERS_SHEMA.json</t>
-  </si>
-  <si>
     <t>Структура ответа JSON для получения формы по id соответствует модели данных</t>
   </si>
   <si>
@@ -335,11 +332,6 @@
 2. Выполнить GET запрос
 Полный запрос к API:
 https://msdev01.sp15.local/api/dbconnection?login= &amp;password= </t>
-  </si>
-  <si>
-    <t>Ожидаемый ответ от сервера:
- - HTTP Status Code 200 ОК
- - Возврат ошибки авторизации</t>
   </si>
   <si>
     <t>Авторизация в системе с неверным логином и паролем возвращает ошибку авторизации</t>
@@ -398,11 +390,6 @@
   </si>
   <si>
     <t>POST запрос с валидным JSON-обьектом возвращает Status Code 200 ОК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Структура JSON соответствует схеме в файле AUTH_SHEMA.json
-</t>
   </si>
   <si>
     <t>TA-1А-3</t>
@@ -477,10 +464,88 @@
     <t>Заголовки ответа на POST запрос с JSON-обьектом сответствуют ожидаемым</t>
   </si>
   <si>
-    <t>JSON-обьект FormsResp: 
- 1) id формы в формате string
- 2) name в формате string
- 3) description в формате string</t>
+    <t>Структура JSON соответствует схеме в файле GET_FORM_BY_ID_SCHEMA.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Структура JSON соответствует схеме в файле AUTH_SCHEMA.json
+</t>
+  </si>
+  <si>
+    <t>Структура JSON-обьекта соответствует схеме в файле FORM_FILTERS_SCHEMA.json</t>
+  </si>
+  <si>
+    <t>Неверные, но валидные данные авторизации</t>
+  </si>
+  <si>
+    <t>GET запрос списка форм с невалидным sessionID возвращает ошибку</t>
+  </si>
+  <si>
+    <t>1. Сформировать GET запрос к API для получения списка форм
+ -  В Headers указать SessionID длинной 24 символа, состоящий из случайных символов латинского алфавита и цифр
+2. Выполнить GET запрос
+Полный запрос к API:
+https://msdev01.sp15.local/api/forms</t>
+  </si>
+  <si>
+    <t>TA-2А-1</t>
+  </si>
+  <si>
+    <t>TA-2А-2</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что отправлен ошибочный код состояния HTTP (НЕ 2ХХ) и он соответствует типу ошибки</t>
+  </si>
+  <si>
+    <t>Ожидаемый ответ от сервера:
+ - HTTP Status Code 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>TA-2А-3</t>
+  </si>
+  <si>
+    <t>GET запрос формы по неверному id возвращает ошибку</t>
+  </si>
+  <si>
+    <t>Невалидный sessionID</t>
+  </si>
+  <si>
+    <t>1. Сформировать GET запрос к API для получения формы
+ -  В Headers указать валидный SessionID, полученый после авторизации
+ -  В параметрах указать ключь НЕВАЛИДНЫЙ formid
+2. Выполнить GET запрос
+Полный запрос к API:
+https://msdev01.sp15.local/api/form?formid=1</t>
+  </si>
+  <si>
+    <t>Ожидаемый ответ от сервера:
+ - HTTP Status Code 400 Bad Request</t>
+  </si>
+  <si>
+    <t>TA-2А-4</t>
+  </si>
+  <si>
+    <t>1. Сформировать GET запрос к API для получения формы
+ -  В Headers указать SessionID, полученый после авторизации
+ -  В параметрах указать НЕВАЛИДНЫЙ ключь formid
+2. Выполнить GET запрос
+Полный запрос к API:
+https://msdev01.sp15.local/api/formfilters?formid=1</t>
+  </si>
+  <si>
+    <t>GET запрос фильтров для формы по неверному id возвращает ошибку</t>
+  </si>
+  <si>
+    <t>POST запрос с невалидным JSON-обьектом возвращает ошибку</t>
+  </si>
+  <si>
+    <t>1. Сформировать POST запрос к API для отправки формы
+ -  В Headers указать SessionID, полученый после авторизации
+ -  В параметрах указать ключь formid
+ - Передать НЕВАЛИДНЫЙ JSON обьект JSONFormChanges
+2. Выполнить POST запрос
+Полный запрос к API:
+https://msdev01.sp15.local/api/saveForm?formid=1</t>
   </si>
 </sst>
 </file>
@@ -648,7 +713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -739,6 +804,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -766,6 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1083,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64E899F-246B-49CD-8A5B-4EA5B9EF77B8}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1114,18 +1183,18 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1133,16 +1202,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="52.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="114.15" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1151,8 +1220,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1171,67 +1240,61 @@
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="36" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+    </row>
+    <row r="9" spans="1:7" ht="42.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D9" s="43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:7" ht="42.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="43" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+    <row r="12" spans="1:7" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="5" t="s">
+    <row r="13" spans="1:7" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1245,67 +1308,63 @@
       <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-    </row>
-    <row r="17" spans="1:5" ht="85.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="42" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+    </row>
+    <row r="17" spans="1:5" ht="42.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="36"/>
+    <row r="18" spans="1:5" ht="50.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="36" t="s">
+    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="43" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="36"/>
+    <row r="20" spans="1:5" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="5" t="s">
+    <row r="21" spans="1:5" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>12</v>
-      </c>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -1318,19 +1377,19 @@
       <c r="A24" s="4">
         <v>4</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="36" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1338,48 +1397,44 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="36" t="s">
+    <row r="27" spans="1:5" ht="40.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="43" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="36"/>
+    <row r="28" spans="1:5" ht="50.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="5" t="s">
+    <row r="29" spans="1:5" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="148.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>12</v>
-      </c>
+    <row r="30" spans="1:5" ht="98.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -1466,21 +1521,25 @@
       <c r="D44" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C29"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="C11:C13"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C21"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B8:D8"/>
@@ -1495,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5FFF93-1529-4000-AD0E-E1D5D9340CD7}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1523,19 +1582,19 @@
     </row>
     <row r="2" spans="1:11" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>46</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>50</v>
@@ -1550,21 +1609,21 @@
         <v>27</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="33"/>
       <c r="E4" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G4" s="33"/>
       <c r="I4" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K4" s="33"/>
     </row>
@@ -1573,7 +1632,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>24</v>
@@ -1585,7 +1644,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1654,19 +1713,19 @@
         <v>28</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1677,21 +1736,21 @@
         <v>27</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" s="33"/>
       <c r="E11" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G11" s="33"/>
       <c r="I11" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K11" s="33"/>
     </row>
@@ -1700,7 +1759,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>24</v>
@@ -1712,7 +1771,7 @@
         <v>24</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1780,19 +1839,19 @@
         <v>28</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1803,21 +1862,21 @@
         <v>27</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C18" s="33"/>
       <c r="E18" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G18" s="33"/>
       <c r="I18" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K18" s="33"/>
     </row>
@@ -1826,7 +1885,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>24</v>
@@ -1838,7 +1897,7 @@
         <v>24</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1906,19 +1965,19 @@
         <v>28</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1927,21 +1986,21 @@
         <v>27</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25" s="33"/>
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G25" s="33"/>
       <c r="I25" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K25" s="33"/>
     </row>
@@ -1950,19 +2009,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2030,19 +2089,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I30" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="24.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2051,20 +2110,21 @@
         <v>27</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C32" s="33"/>
       <c r="E32" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>92</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G32" s="33"/>
       <c r="I32" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K32" s="33"/>
     </row>
@@ -2073,19 +2133,19 @@
         <v>24</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I33" s="16" t="s">
         <v>24</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2153,19 +2213,19 @@
         <v>28</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="27.85" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2174,16 +2234,16 @@
         <v>27</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="34"/>
+        <v>85</v>
+      </c>
+      <c r="G39" s="46"/>
     </row>
     <row r="40" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2215,7 +2275,7 @@
         <v>28</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2243,18 +2303,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC45E1A2-43A1-44CC-B441-3B8EEF97A395}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="55.875" customWidth="1"/>
-    <col min="3" max="3" width="2.625" customWidth="1"/>
-    <col min="4" max="4" width="2.375" customWidth="1"/>
+    <col min="3" max="3" width="3.875" customWidth="1"/>
+    <col min="4" max="4" width="4.5" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="55.75" customWidth="1"/>
     <col min="7" max="7" width="3.125" customWidth="1"/>
@@ -2272,15 +2332,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>71</v>
+      </c>
       <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="32" t="s">
+        <v>72</v>
+      </c>
       <c r="F2" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>50</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
@@ -2291,35 +2355,30 @@
         <v>27</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>52</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C4" s="34"/>
       <c r="E4" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>52</v>
-      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="40.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="I5" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="I5" s="20"/>
       <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2335,18 +2394,16 @@
       <c r="F6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="E7" s="20" t="s">
         <v>25</v>
       </c>
@@ -2359,7 +2416,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>26</v>
@@ -2373,7 +2430,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>28</v>
@@ -2381,14 +2438,218 @@
       <c r="F9" s="13"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="34"/>
+    </row>
+    <row r="12" spans="1:10" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="106" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="34.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="34"/>
+    </row>
+    <row r="19" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="22.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="116.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="34"/>
+    </row>
+    <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="108.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="29.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="34"/>
+    </row>
+    <row r="33" spans="1:2" ht="40.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="125" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{B4CDA32B-87CA-43EE-832E-7759D37613C9}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{7E5BD26F-690E-4A40-AFD2-D91E1513DC44}"/>
-    <hyperlink ref="J6" r:id="rId3" xr:uid="{07AD102C-2DFB-4026-A214-FE9A69814008}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{2C7A3971-E2FA-4B35-9777-181180A7EE1B}"/>
+    <hyperlink ref="B20" r:id="rId4" xr:uid="{5D70AC63-9723-4FF0-94A7-0CF27BF203D7}"/>
+    <hyperlink ref="B27" r:id="rId5" xr:uid="{C37D77A0-BAFE-4E37-A58F-B75AF69FDCD6}"/>
+    <hyperlink ref="B34" r:id="rId6" xr:uid="{85EBBB8A-D2AA-444A-9BA7-3B2273573CCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/doc/Test_cases.xlsx
+++ b/doc/Test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGribanov\IdeaProjects\api-rest-turbo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FBC627-38F6-413A-BEF1-2600CBFEB7A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160EBE6A-B56E-409C-9E84-9BA35D6EFEFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18774" windowHeight="7349" activeTab="2" xr2:uid="{3EF859F2-01F4-4F87-84A4-7647AD959083}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18774" windowHeight="7349" activeTab="4" xr2:uid="{3EF859F2-01F4-4F87-84A4-7647AD959083}"/>
   </bookViews>
   <sheets>
     <sheet name="Сценарии тестирования" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="157">
   <si>
     <t>#</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Ожидаемый результат</t>
-  </si>
-  <si>
-    <t>Группа тестов</t>
   </si>
   <si>
     <t>Проверить заголовки:</t>
@@ -270,9 +267,6 @@
     <t xml:space="preserve"> Структура ответа JSON для получения списка форм соответствует модели данных</t>
   </si>
   <si>
-    <t>TA-2-1</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">JSON схема для ответа после авторизации 
 </t>
@@ -478,9 +472,6 @@
     <t>Неверные, но валидные данные авторизации</t>
   </si>
   <si>
-    <t>GET запрос списка форм с невалидным sessionID возвращает ошибку</t>
-  </si>
-  <si>
     <t>1. Сформировать GET запрос к API для получения списка форм
  -  В Headers указать SessionID длинной 24 символа, состоящий из случайных символов латинского алфавита и цифр
 2. Выполнить GET запрос
@@ -510,39 +501,199 @@
     <t>Невалидный sessionID</t>
   </si>
   <si>
+    <t>Ожидаемый ответ от сервера:
+ - HTTP Status Code 400 Bad Request</t>
+  </si>
+  <si>
+    <t>TA-2А-4</t>
+  </si>
+  <si>
+    <t>GET запрос фильтров для формы по неверному id возвращает ошибку</t>
+  </si>
+  <si>
+    <t>POST запрос с невалидным JSON-обьектом возвращает ошибку</t>
+  </si>
+  <si>
+    <t>Авторизация в системе с неверным логином и паролем возвращает JSON-обьект с сообщением об ошибке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ожидаемый ответ от сервера:
+- Получен JSON-обьект содержащий сообщение об ошибке авторизации с текстом: "Bad Request. No login param"
+</t>
+  </si>
+  <si>
+    <t>TA-2Б-1</t>
+  </si>
+  <si>
+    <t>GET запрос списка форм с валидным sessionID возвращает ошибку</t>
+  </si>
+  <si>
+    <t>валидный sessionID</t>
+  </si>
+  <si>
     <t>1. Сформировать GET запрос к API для получения формы
  -  В Headers указать валидный SessionID, полученый после авторизации
- -  В параметрах указать ключь НЕВАЛИДНЫЙ formid
+ -  В параметрах указать ключь ВАЛИДНЫЙ formid
 2. Выполнить GET запрос
 Полный запрос к API:
 https://msdev01.sp15.local/api/form?formid=1</t>
   </si>
   <si>
-    <t>Ожидаемый ответ от сервера:
- - HTTP Status Code 400 Bad Request</t>
-  </si>
-  <si>
-    <t>TA-2А-4</t>
-  </si>
-  <si>
     <t>1. Сформировать GET запрос к API для получения формы
  -  В Headers указать SessionID, полученый после авторизации
- -  В параметрах указать НЕВАЛИДНЫЙ ключь formid
+ -  В параметрах указать ВАЛИДНЫЙ ключь formid
 2. Выполнить GET запрос
 Полный запрос к API:
 https://msdev01.sp15.local/api/formfilters?formid=1</t>
   </si>
   <si>
-    <t>GET запрос фильтров для формы по неверному id возвращает ошибку</t>
-  </si>
-  <si>
-    <t>POST запрос с невалидным JSON-обьектом возвращает ошибку</t>
-  </si>
-  <si>
     <t>1. Сформировать POST запрос к API для отправки формы
  -  В Headers указать SessionID, полученый после авторизации
  -  В параметрах указать ключь formid
- - Передать НЕВАЛИДНЫЙ JSON обьект JSONFormChanges
+ - Передать ВАЛИДНЫЙ JSON обьект JSONFormChanges
+2. Выполнить POST запрос
+Полный запрос к API:
+https://msdev01.sp15.local/api/saveForm?formid=1</t>
+  </si>
+  <si>
+    <t>GET запрос списка форм с валидным sessionID возвращает  JSON-обьект с сообщением об ошибке</t>
+  </si>
+  <si>
+    <t>Ожидаемый ответ от сервера:
+- Получен JSON-обьект содержащий сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>TA-2Б-3</t>
+  </si>
+  <si>
+    <t>TA-2Б-2</t>
+  </si>
+  <si>
+    <t>GET запрос формы по неверному id возвращает JSON-обьект с сообщением об ошибке</t>
+  </si>
+  <si>
+    <t>TA-2Б-4</t>
+  </si>
+  <si>
+    <t>GET запрос фильтров для формы по неверному id возвращает JSON-обьект с сообщением об ошибке</t>
+  </si>
+  <si>
+    <t>POST запрос с невалидным JSON-обьектом возвращает JSON-обьект с сообщением об ошибке</t>
+  </si>
+  <si>
+    <t>TA-3А-1</t>
+  </si>
+  <si>
+    <t>TA-3А-2</t>
+  </si>
+  <si>
+    <t>TA-3А-3</t>
+  </si>
+  <si>
+    <t>TA-3А-4</t>
+  </si>
+  <si>
+    <t>TA-3А-5</t>
+  </si>
+  <si>
+    <t>TA-3Б-1</t>
+  </si>
+  <si>
+    <t>TA-3Б-2</t>
+  </si>
+  <si>
+    <t>TA-3Б-3</t>
+  </si>
+  <si>
+    <t>TA-3Б-4</t>
+  </si>
+  <si>
+    <t>TA-3Б-5</t>
+  </si>
+  <si>
+    <t>Авторизация в системе с недопустимыми символами логина и пароля возвращает ошибку авторизации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Выполнить GET запрос к API 
+ - В параметрах запроса передать недопустимые символы параметров {login} и  {password}
+2. Выполнить GET запрос
+Полный запрос к API:
+https://msdev01.sp15.local/api/dbconnection?login= &amp;password= </t>
+  </si>
+  <si>
+    <t>недопустимые символы параметров {login} и  {password}</t>
+  </si>
+  <si>
+    <t>Авторизация в системе с  недопустимыми символами логина и пароля возвращает JSON-обьект с сообщением об ошибке</t>
+  </si>
+  <si>
+    <t>1. Выполнить GET запрос к API 
+ - В параметрах запроса передать недопустимые символы параметров {login} и  {password}
+2. Выполнить GET запрос
+Полный запрос к API:
+https://msdev01.sp15.local/api/dbconnection?login= &amp;password=</t>
+  </si>
+  <si>
+    <t>GET запрос списка форм с недопустимыми символами sessionID возвращает ошибку</t>
+  </si>
+  <si>
+    <t>GET запрос списка форм с недопустимыми символами sessionID возвращает  JSON-обьект с сообщением об ошибке</t>
+  </si>
+  <si>
+    <t>1. Сформировать GET запрос к API для получения списка форм
+ -  В Headers указать SessionID длинной 24 символа, состоящий из недопустимых символов
+2. Выполнить GET запрос
+Полный запрос к API:
+https://msdev01.sp15.local/api/forms</t>
+  </si>
+  <si>
+    <t>GET запрос формы с недопустимыми символами id возвращает ошибку</t>
+  </si>
+  <si>
+    <t>GET запрос формы с недопустимыми символами id возвращает JSON-обьект с сообщением об ошибке</t>
+  </si>
+  <si>
+    <t>1. Сформировать GET запрос к API для получения формы
+ -  В Headers указать валидный SessionID, полученый после авторизации
+ -  В параметрах указать ключь состоящий их недопустимых символов formid
+2. Выполнить GET запрос
+Полный запрос к API:
+https://msdev01.sp15.local/api/form?formid=1</t>
+  </si>
+  <si>
+    <t>GET запрос фильтров для формы с недопустимыми символами id возвращает ошибку</t>
+  </si>
+  <si>
+    <t>GET запрос фильтров для формы с недопустимыми символами id возвращает JSON-обьект с сообщением об ошибке</t>
+  </si>
+  <si>
+    <t>1. Сформировать GET запрос к API для получения формы
+ -  В Headers указать SessionID, полученый после авторизации
+ -  В параметрах указать ключь состоящий их недопустимых символов formid
+2. Выполнить GET запрос
+Полный запрос к API:
+https://msdev01.sp15.local/api/formfilters?formid=1</t>
+  </si>
+  <si>
+    <t>POST запрос с недопустимыми символами в JSON-обьекте возвращает ошибку</t>
+  </si>
+  <si>
+    <t>POST запрос с недопустимыми символами в JSON-обьекте с сообщением об ошибке</t>
+  </si>
+  <si>
+    <t>1. Сформировать POST запрос к API для отправки формы
+ -  В Headers указать SessionID, полученый после авторизации
+ -  В параметрах указать ключь formid
+ - Передать JSON обьект состоящий их недопустимых символов  JSONFormChanges
+2. Выполнить POST запрос
+Полный запрос к API:
+https://msdev01.sp15.local/api/saveForm?formid=1</t>
+  </si>
+  <si>
+    <t>1. Сформировать POST запрос к API для отправки формы
+ -  В Headers указать SessionID, полученый после авторизации
+ -  В параметрах указать ключь formid
+ - Передать  JSON обьект состоящий их недопустимых символов JSONFormChanges
 2. Выполнить POST запрос
 Полный запрос к API:
 https://msdev01.sp15.local/api/saveForm?formid=1</t>
@@ -552,7 +703,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +743,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -713,7 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -742,9 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -835,6 +991,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1152,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64E899F-246B-49CD-8A5B-4EA5B9EF77B8}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1183,18 +1360,18 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1202,16 +1379,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="52.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="114.15" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1220,10 +1397,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
@@ -1240,34 +1417,34 @@
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="42.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>107</v>
+      <c r="D9" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="45"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:7" ht="42.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="43" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="42" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1275,26 +1452,26 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="43" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="42" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1308,18 +1485,18 @@
       <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:5" ht="42.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1327,17 +1504,17 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="50.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="43" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1345,26 +1522,26 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="42" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -1377,19 +1554,19 @@
       <c r="A24" s="4">
         <v>4</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="37" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1397,17 +1574,17 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="40.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="43" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -1415,26 +1592,26 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="50.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="98.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -1554,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5FFF93-1529-4000-AD0E-E1D5D9340CD7}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1573,709 +1750,709 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14">
+      <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="32" t="s">
+      <c r="J2" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="32" t="s">
+      <c r="C4" s="32"/>
+      <c r="E4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="I4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:11" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="127.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="C11" s="32"/>
+      <c r="E11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="I11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:11" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="131.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="E18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="I18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:11" ht="40.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="E4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="33"/>
-      <c r="I4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="33"/>
-    </row>
-    <row r="5" spans="1:11" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="I19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="24" t="s">
+      <c r="J19" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="19" t="s">
+      <c r="E20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="I20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="20" t="s">
+      <c r="B21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="16" t="s">
+      <c r="F21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="127.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="J21" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="125.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="I22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="J22" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="140.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B23" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="I23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="E11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="I11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="33"/>
-    </row>
-    <row r="12" spans="1:11" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="131.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="E18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="33"/>
-      <c r="I18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" s="33"/>
-    </row>
-    <row r="19" spans="1:11" ht="40.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="125.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="140.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>96</v>
+      <c r="J23" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="E25" s="16" t="s">
+      <c r="B25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="E25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="33"/>
-      <c r="I25" s="16" t="s">
+      <c r="F25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="I25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="K25" s="33"/>
+      <c r="J25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="32"/>
     </row>
     <row r="26" spans="1:11" ht="32.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="B26" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="16" t="s">
+      <c r="F26" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="24" t="s">
-        <v>62</v>
+      <c r="J26" s="23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="127.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="19" t="s">
+      <c r="E29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="127.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="30" spans="1:11" ht="148.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="17" t="s">
+      <c r="B30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="17" t="s">
+      <c r="F30" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>97</v>
+      <c r="J30" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="24.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:11" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="E32" s="16" t="s">
+      <c r="B32" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="E32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="I32" s="16" t="s">
+      <c r="F32" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="I32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K32" s="33"/>
+      <c r="J32" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="32"/>
     </row>
     <row r="33" spans="1:10" ht="59.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="16" t="s">
+      <c r="B33" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" s="16" t="s">
+      <c r="F33" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="24" t="s">
-        <v>98</v>
+      <c r="J33" s="23" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="19" t="s">
+      <c r="A34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="19" t="s">
+      <c r="E36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J34" s="19" t="s">
+      <c r="I36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="37" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="17" t="s">
+      <c r="B37" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I37" s="17" t="s">
+      <c r="F37" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="13" t="s">
-        <v>63</v>
+      <c r="J37" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="27.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="46"/>
+      <c r="F39" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="45"/>
     </row>
     <row r="40" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="24" t="s">
-        <v>56</v>
+      <c r="F40" s="23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="19" t="s">
+      <c r="E41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="123.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="123.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="44" spans="1:10" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="31" t="s">
-        <v>57</v>
+      <c r="F44" s="30" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2305,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC45E1A2-43A1-44CC-B441-3B8EEF97A395}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2324,455 +2501,1066 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14">
+      <c r="A1" s="13">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="E2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="E4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:10" ht="40.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="E4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" ht="40.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="24"/>
+      <c r="F5" s="34" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="B7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="12"/>
+      <c r="F7" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="B8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" ht="50.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="F8" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="59.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="B9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="13"/>
+      <c r="F9" s="12" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="28.55" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="E11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="106" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="34.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="34"/>
-    </row>
-    <row r="12" spans="1:10" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="C18" s="33"/>
+      <c r="E18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="1:7" ht="36.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="B19" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="22.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="E21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="F21" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="116.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="E25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="34" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="106" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="E26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="108.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="34.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="B29" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="B30" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="29.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B32" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="E32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="1:6" ht="40.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="125" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="34"/>
-    </row>
-    <row r="19" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="22.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="116.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="34"/>
-    </row>
-    <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="108.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="29.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="34"/>
-    </row>
-    <row r="33" spans="1:2" ht="40.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="125" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>113</v>
+      <c r="F37" s="12" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{B4CDA32B-87CA-43EE-832E-7759D37613C9}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{7E5BD26F-690E-4A40-AFD2-D91E1513DC44}"/>
-    <hyperlink ref="B13" r:id="rId3" xr:uid="{2C7A3971-E2FA-4B35-9777-181180A7EE1B}"/>
-    <hyperlink ref="B20" r:id="rId4" xr:uid="{5D70AC63-9723-4FF0-94A7-0CF27BF203D7}"/>
-    <hyperlink ref="B27" r:id="rId5" xr:uid="{C37D77A0-BAFE-4E37-A58F-B75AF69FDCD6}"/>
-    <hyperlink ref="B34" r:id="rId6" xr:uid="{85EBBB8A-D2AA-444A-9BA7-3B2273573CCA}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{2C7A3971-E2FA-4B35-9777-181180A7EE1B}"/>
+    <hyperlink ref="B20" r:id="rId3" xr:uid="{5D70AC63-9723-4FF0-94A7-0CF27BF203D7}"/>
+    <hyperlink ref="B27" r:id="rId4" xr:uid="{C37D77A0-BAFE-4E37-A58F-B75AF69FDCD6}"/>
+    <hyperlink ref="B34" r:id="rId5" xr:uid="{85EBBB8A-D2AA-444A-9BA7-3B2273573CCA}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{1B159236-B265-492F-81DC-C56E279863BB}"/>
+    <hyperlink ref="F13" r:id="rId7" xr:uid="{2A96BF00-ADD5-42E9-9DC9-97259980F77F}"/>
+    <hyperlink ref="F20" r:id="rId8" xr:uid="{8D7F2207-C3BB-4F40-9AC5-602B2C368C64}"/>
+    <hyperlink ref="F27" r:id="rId9" xr:uid="{6D75C1B8-A744-493D-A8DE-2EA59F96102C}"/>
+    <hyperlink ref="F34" r:id="rId10" xr:uid="{370B03D1-DE07-46D5-818B-0A28858A03BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E660532F-61ED-4555-BE66-BEE54833DD74}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="53.5" customWidth="1"/>
+    <col min="3" max="3" width="4.125" customWidth="1"/>
+    <col min="4" max="4" width="4.25" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="55.75" customWidth="1"/>
+    <col min="7" max="7" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="46"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="B4" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="E4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="49"/>
+    </row>
+    <row r="5" spans="1:7" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="B5" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="B7" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13"/>
-    </row>
-    <row r="8" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="B8" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="E11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:7" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="E18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="1:7" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="E25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="E32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="1:6" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{94D82563-542E-4BDB-8B49-42974EF4E64C}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{5F05B687-CB2B-4F98-9399-C0AD2CDB56F7}"/>
+    <hyperlink ref="B20" r:id="rId3" xr:uid="{2CCF7BEE-21DC-46A4-8E3C-5D6418FAB850}"/>
+    <hyperlink ref="B27" r:id="rId4" xr:uid="{FE448575-F4F3-4E9F-8C5D-43EF44C7AAD1}"/>
+    <hyperlink ref="B34" r:id="rId5" xr:uid="{303AF1A1-0EAB-4F4C-A710-7A37F0A1F671}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{FF18542A-125F-4363-AE60-ECC318C6AD56}"/>
+    <hyperlink ref="F13" r:id="rId7" xr:uid="{1E8D16C8-B29B-4DE5-8807-F0019B9B18CB}"/>
+    <hyperlink ref="F20" r:id="rId8" xr:uid="{EB62BED9-62A1-4DE3-AC4E-4747A99D2BDC}"/>
+    <hyperlink ref="F27" r:id="rId9" xr:uid="{AE0E85AD-AAC2-4BCB-AD1D-A840E1EEC8E1}"/>
+    <hyperlink ref="F34" r:id="rId10" xr:uid="{295BC36B-9E77-4D63-A908-67C2206CE803}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D79DE45-BA5B-4DAF-9024-17DF7D2AFCF4}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="53.75" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.875" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="55.75" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13">
         <v>4</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="13"/>
-    </row>
-    <row r="8" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="13"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2795,52 +3583,52 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:2" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="22"/>
     </row>
     <row r="5" spans="1:2" ht="23.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="12"/>
+      <c r="A5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="10" spans="1:2" ht="179.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Test_cases.xlsx
+++ b/doc/Test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGribanov\IdeaProjects\api-rest-turbo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D20B6E-0A8B-4EA1-8543-890844ACFF2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A34E63-2FBA-46B7-A732-9EFCDDC06E54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18774" windowHeight="7349" activeTab="3" xr2:uid="{3EF859F2-01F4-4F87-84A4-7647AD959083}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="158">
   <si>
     <t>#</t>
   </si>
@@ -839,7 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -977,6 +977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1685,7 +1686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5FFF93-1529-4000-AD0E-E1D5D9340CD7}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2437,7 +2438,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2475,7 +2476,7 @@
       <c r="F2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="27"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="23"/>

--- a/doc/Test_cases.xlsx
+++ b/doc/Test_cases.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGribanov\IdeaProjects\api-rest-turbo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A34E63-2FBA-46B7-A732-9EFCDDC06E54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5D35F1-DDB4-4330-B8E3-76B31978046A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18774" windowHeight="7349" activeTab="3" xr2:uid="{3EF859F2-01F4-4F87-84A4-7647AD959083}"/>
   </bookViews>
   <sheets>
     <sheet name="Сценарии тестирования" sheetId="1" r:id="rId1"/>
-    <sheet name="Тест кейсы (#1)" sheetId="2" r:id="rId2"/>
-    <sheet name="Тест кейсы (#2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Тест кейсы (#3)" sheetId="4" r:id="rId4"/>
+    <sheet name="INFO" sheetId="8" r:id="rId2"/>
+    <sheet name="Тест кейсы (#1)" sheetId="2" r:id="rId3"/>
+    <sheet name="Тест кейсы (#2)" sheetId="3" r:id="rId4"/>
+    <sheet name="Тест кейсы (#3)" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="163">
   <si>
     <t>#</t>
   </si>
@@ -664,6 +665,21 @@
 Полный запрос к API:
 https://msdev01.sp15.local/api/forms
 </t>
+  </si>
+  <si>
+    <t>Обозначения</t>
+  </si>
+  <si>
+    <t>Тест не готов</t>
+  </si>
+  <si>
+    <t>Тест готов</t>
+  </si>
+  <si>
+    <t>Тест не проверен</t>
+  </si>
+  <si>
+    <t>Недостает информации</t>
   </si>
 </sst>
 </file>
@@ -724,7 +740,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,8 +789,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -834,12 +856,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -978,6 +1037,32 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1295,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64E899F-246B-49CD-8A5B-4EA5B9EF77B8}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1683,11 +1768,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE25527F-8FE5-4497-9681-6F8FD70C8D31}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="65"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
+      <c r="B4" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="65"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="65"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5FFF93-1529-4000-AD0E-E1D5D9340CD7}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2433,12 +2585,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC45E1A2-43A1-44CC-B441-3B8EEF97A395}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2451,8 +2603,9 @@
     <col min="6" max="6" width="55.75" customWidth="1"/>
     <col min="7" max="7" width="3.125" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="56.125" customWidth="1"/>
+    <col min="9" max="9" width="4.25" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2489,7 +2642,7 @@
       <c r="B4" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="54"/>
       <c r="E4" s="18" t="s">
         <v>26</v>
       </c>
@@ -2576,7 +2729,7 @@
       <c r="B11" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="54"/>
       <c r="E11" s="18" t="s">
         <v>26</v>
       </c>
@@ -2663,7 +2816,7 @@
       <c r="B18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="54"/>
       <c r="E18" s="14" t="s">
         <v>26</v>
       </c>
@@ -2750,7 +2903,7 @@
       <c r="B25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="32"/>
+      <c r="C25" s="54"/>
       <c r="E25" s="14" t="s">
         <v>26</v>
       </c>
@@ -2837,7 +2990,7 @@
       <c r="B32" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="54"/>
       <c r="E32" s="14" t="s">
         <v>26</v>
       </c>
@@ -2934,12 +3087,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E660532F-61ED-4555-BE66-BEE54833DD74}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2990,7 +3143,7 @@
       <c r="B4" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="54"/>
       <c r="E4" s="18" t="s">
         <v>26</v>
       </c>
@@ -3114,7 +3267,7 @@
       <c r="B11" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="54"/>
       <c r="E11" s="18" t="s">
         <v>26</v>
       </c>
@@ -3238,7 +3391,7 @@
       <c r="B18" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="54"/>
       <c r="E18" s="14" t="s">
         <v>26</v>
       </c>
@@ -3325,7 +3478,7 @@
       <c r="B25" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="32"/>
+      <c r="C25" s="54"/>
       <c r="E25" s="14" t="s">
         <v>26</v>
       </c>
@@ -3412,7 +3565,7 @@
       <c r="B32" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="54"/>
       <c r="E32" s="14" t="s">
         <v>26</v>
       </c>

--- a/doc/Test_cases.xlsx
+++ b/doc/Test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGribanov\IdeaProjects\api-rest-turbo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5D35F1-DDB4-4330-B8E3-76B31978046A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBAC1F2-3BE5-4498-93E3-6B63A3052FB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18774" windowHeight="7349" activeTab="3" xr2:uid="{3EF859F2-01F4-4F87-84A4-7647AD959083}"/>
   </bookViews>
@@ -63,14 +63,6 @@
   </si>
   <si>
     <t>Подтвердить загрузку ответа:</t>
-  </si>
-  <si>
-    <t>1. Ответ - правильно сформированный обьект JSON
-2. Структура ответа соответствует модели данных (проверка схемы: имена и типы полей соответствуют ожидаемым, включая вложенные обьекты, поля не допускающие значение NULL не являются пустыми)</t>
-  </si>
-  <si>
-    <t>1. Заголовки HTTP соответствуют ожидаемым, включая:
-Content-Type, Content-Encoding, Keep-Alive</t>
   </si>
   <si>
     <t>Негативное тестирование - валидный ввод данных</t>
@@ -680,6 +672,14 @@
   </si>
   <si>
     <t>Недостает информации</t>
+  </si>
+  <si>
+    <t>1. Заголовки HTTP соответствуют ожидаемым, включая:
+Content-Type, Content-Encoding</t>
+  </si>
+  <si>
+    <t>1. Ответ - правильно сформированный обьект JSON
+2. Структура ответа соответствует модели данных (проверка схемы)</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1437,24 +1437,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="114.15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="35"/>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="35"/>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -1477,13 +1477,13 @@
     <row r="9" spans="1:7" ht="42.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1496,10 +1496,10 @@
       <c r="A11" s="37"/>
       <c r="B11" s="35"/>
       <c r="C11" s="41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -1507,7 +1507,7 @@
       <c r="B12" s="35"/>
       <c r="C12" s="42"/>
       <c r="D12" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -1515,7 +1515,7 @@
       <c r="B13" s="35"/>
       <c r="C13" s="42"/>
       <c r="D13" s="41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1537,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -1545,13 +1545,13 @@
     <row r="17" spans="1:5" ht="42.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="50.3" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
       <c r="B18" s="42"/>
       <c r="C18" s="35"/>
       <c r="D18" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1569,7 +1569,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -1577,7 +1577,7 @@
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
       <c r="D20" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -1585,7 +1585,7 @@
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
       <c r="D21" s="41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1783,7 +1783,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -1796,28 +1796,28 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
       <c r="B3" s="64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
       <c r="B4" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" s="65"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
       <c r="B5" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C5" s="65"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="60"/>
       <c r="B6" s="57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="65"/>
     </row>
@@ -1839,7 +1839,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1866,22 +1866,22 @@
     </row>
     <row r="2" spans="1:11" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.25">
@@ -1890,126 +1890,126 @@
     </row>
     <row r="4" spans="1:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="31"/>
       <c r="E4" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G4" s="31"/>
       <c r="I4" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="127.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2017,125 +2017,125 @@
     </row>
     <row r="11" spans="1:11" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="31"/>
       <c r="E11" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G11" s="31"/>
       <c r="I11" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:11" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="E13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="131.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2143,423 +2143,423 @@
     </row>
     <row r="18" spans="1:11" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="31"/>
       <c r="E18" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G18" s="31"/>
       <c r="I18" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="40.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="I20" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="125.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="140.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" s="31"/>
       <c r="E25" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G25" s="31"/>
       <c r="I25" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:11" ht="32.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="127.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="148.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="24.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:11" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="31"/>
       <c r="E32" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G32" s="31"/>
       <c r="I32" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K32" s="31"/>
     </row>
     <row r="33" spans="1:10" ht="59.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F34" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F36" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="27.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E39" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="123.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E43" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="28.55" x14ac:dyDescent="0.25">
       <c r="E44" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2590,7 +2590,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2613,21 +2613,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J2" s="53"/>
     </row>
@@ -2637,436 +2637,436 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="54"/>
       <c r="E4" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="32"/>
+        <v>108</v>
+      </c>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="40.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="59.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.55" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="54"/>
       <c r="E11" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="32"/>
+        <v>117</v>
+      </c>
+      <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="E13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="106" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="34.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" s="54"/>
       <c r="E18" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="32"/>
+        <v>116</v>
+      </c>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="36.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="22.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="116.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28.55" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C25" s="54"/>
       <c r="E25" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="32"/>
+        <v>119</v>
+      </c>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="108.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="29.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="54"/>
       <c r="E32" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="32"/>
+        <v>81</v>
+      </c>
+      <c r="G32" s="54"/>
     </row>
     <row r="33" spans="1:6" ht="40.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="125" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +3092,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3115,21 +3115,21 @@
         <v>3</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3138,510 +3138,510 @@
     </row>
     <row r="4" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="54"/>
       <c r="E4" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G4" s="47"/>
       <c r="I4" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" ht="48.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="125.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="53" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.55" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="54"/>
       <c r="E11" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G11" s="32"/>
       <c r="I11" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" ht="48.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="E13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="I13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" s="54"/>
       <c r="E18" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="29.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C25" s="54"/>
       <c r="E25" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="28.55" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C32" s="54"/>
       <c r="E32" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G32" s="32"/>
     </row>
     <row r="33" spans="1:6" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
